--- a/src/test/resources/io.dingodb.test/testdata/txnbtreecases/index/index_cases1_txnbtree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnbtreecases/index/index_cases1_txnbtree.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$257</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -4767,12 +4767,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4787,11 +4793,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5095,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F265" sqref="F265"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5159,7 +5166,7 @@
         <v>819</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>327</v>
@@ -5194,7 +5201,7 @@
         <v>820</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>817</v>
@@ -5229,7 +5236,7 @@
         <v>821</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>818</v>
@@ -5264,7 +5271,7 @@
         <v>822</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>328</v>
@@ -5299,7 +5306,7 @@
         <v>823</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>329</v>
@@ -5334,7 +5341,7 @@
         <v>824</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>330</v>
@@ -5369,7 +5376,7 @@
         <v>825</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>331</v>
@@ -5404,7 +5411,7 @@
         <v>826</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -5439,7 +5446,7 @@
         <v>827</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -5474,7 +5481,7 @@
         <v>828</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
@@ -5509,7 +5516,7 @@
         <v>829</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
@@ -5544,7 +5551,7 @@
         <v>830</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>48</v>
@@ -5579,7 +5586,7 @@
         <v>831</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>52</v>
@@ -5614,7 +5621,7 @@
         <v>832</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>56</v>
@@ -5649,7 +5656,7 @@
         <v>833</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>74</v>
@@ -5684,7 +5691,7 @@
         <v>834</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>75</v>
@@ -5719,7 +5726,7 @@
         <v>835</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>76</v>
@@ -5754,7 +5761,7 @@
         <v>836</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>77</v>
@@ -5789,7 +5796,7 @@
         <v>837</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>78</v>
@@ -5824,7 +5831,7 @@
         <v>838</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>79</v>
@@ -5894,7 +5901,7 @@
         <v>840</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>332</v>
@@ -5929,7 +5936,7 @@
         <v>841</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>333</v>
@@ -5964,7 +5971,7 @@
         <v>842</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>537</v>
@@ -5999,7 +6006,7 @@
         <v>843</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>538</v>
@@ -6034,7 +6041,7 @@
         <v>844</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>539</v>
@@ -6069,7 +6076,7 @@
         <v>845</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>540</v>
@@ -6139,7 +6146,7 @@
         <v>847</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>136</v>
@@ -6174,7 +6181,7 @@
         <v>848</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>110</v>
@@ -6209,7 +6216,7 @@
         <v>849</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>111</v>
@@ -6244,7 +6251,7 @@
         <v>850</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>112</v>
@@ -6279,7 +6286,7 @@
         <v>851</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>113</v>
@@ -6314,7 +6321,7 @@
         <v>852</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>114</v>
@@ -6349,7 +6356,7 @@
         <v>853</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>115</v>
@@ -6384,7 +6391,7 @@
         <v>854</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>137</v>
@@ -6419,7 +6426,7 @@
         <v>855</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>138</v>
@@ -6454,7 +6461,7 @@
         <v>856</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>139</v>
@@ -6489,7 +6496,7 @@
         <v>857</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>140</v>
@@ -6524,7 +6531,7 @@
         <v>858</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>141</v>
@@ -6559,7 +6566,7 @@
         <v>859</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>142</v>
@@ -6594,7 +6601,7 @@
         <v>860</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>143</v>
@@ -6664,7 +6671,7 @@
         <v>862</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>165</v>
@@ -6734,7 +6741,7 @@
         <v>864</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>167</v>
@@ -6769,7 +6776,7 @@
         <v>865</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>168</v>
@@ -6839,7 +6846,7 @@
         <v>867</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>170</v>
@@ -6874,7 +6881,7 @@
         <v>868</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>171</v>
@@ -6909,7 +6916,7 @@
         <v>869</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>172</v>
@@ -7081,7 +7088,7 @@
         <v>874</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>198</v>
@@ -7116,7 +7123,7 @@
         <v>875</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>203</v>
@@ -7151,7 +7158,7 @@
         <v>876</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>210</v>
@@ -7186,7 +7193,7 @@
         <v>877</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>211</v>
@@ -7221,7 +7228,7 @@
         <v>878</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>212</v>
@@ -7256,7 +7263,7 @@
         <v>879</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>213</v>
@@ -7291,7 +7298,7 @@
         <v>880</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>221</v>
@@ -7326,7 +7333,7 @@
         <v>881</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>222</v>
@@ -7361,7 +7368,7 @@
         <v>882</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>227</v>
@@ -7396,7 +7403,7 @@
         <v>883</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>230</v>
@@ -7431,7 +7438,7 @@
         <v>884</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>232</v>
@@ -7466,7 +7473,7 @@
         <v>885</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>236</v>
@@ -7501,7 +7508,7 @@
         <v>886</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>238</v>
@@ -7536,7 +7543,7 @@
         <v>887</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>241</v>
@@ -7571,7 +7578,7 @@
         <v>888</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>244</v>
@@ -7606,7 +7613,7 @@
         <v>889</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>247</v>
@@ -7641,7 +7648,7 @@
         <v>890</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>248</v>
@@ -7676,7 +7683,7 @@
         <v>891</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>253</v>
@@ -7711,7 +7718,7 @@
         <v>892</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>257</v>
@@ -7746,7 +7753,7 @@
         <v>893</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>260</v>
@@ -7781,7 +7788,7 @@
         <v>894</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>264</v>
@@ -7816,7 +7823,7 @@
         <v>895</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>274</v>
@@ -7851,7 +7858,7 @@
         <v>896</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>277</v>
@@ -7886,7 +7893,7 @@
         <v>897</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>276</v>
@@ -7921,7 +7928,7 @@
         <v>898</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>279</v>
@@ -7956,7 +7963,7 @@
         <v>899</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>281</v>
@@ -7991,7 +7998,7 @@
         <v>900</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>283</v>
@@ -8026,7 +8033,7 @@
         <v>901</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>284</v>
@@ -8061,7 +8068,7 @@
         <v>902</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>285</v>
@@ -8096,7 +8103,7 @@
         <v>903</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>290</v>
@@ -8131,7 +8138,7 @@
         <v>904</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>295</v>
@@ -8166,7 +8173,7 @@
         <v>905</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>296</v>
@@ -8201,7 +8208,7 @@
         <v>906</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>297</v>
@@ -8236,7 +8243,7 @@
         <v>907</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>302</v>
@@ -8271,7 +8278,7 @@
         <v>908</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>303</v>
@@ -8306,7 +8313,7 @@
         <v>909</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>304</v>
@@ -8341,7 +8348,7 @@
         <v>910</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>318</v>
@@ -8376,7 +8383,7 @@
         <v>911</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>311</v>
@@ -8411,7 +8418,7 @@
         <v>912</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>312</v>
@@ -8446,7 +8453,7 @@
         <v>913</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>323</v>
@@ -8481,7 +8488,7 @@
         <v>914</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>324</v>
@@ -8516,7 +8523,7 @@
         <v>915</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>339</v>
@@ -8586,7 +8593,7 @@
         <v>917</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>345</v>
@@ -8621,7 +8628,7 @@
         <v>918</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>351</v>
@@ -8656,7 +8663,7 @@
         <v>919</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>346</v>
@@ -8691,7 +8698,7 @@
         <v>920</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>347</v>
@@ -8726,7 +8733,7 @@
         <v>921</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>358</v>
@@ -8761,7 +8768,7 @@
         <v>922</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>361</v>
@@ -8796,7 +8803,7 @@
         <v>923</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>362</v>
@@ -8831,7 +8838,7 @@
         <v>924</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>363</v>
@@ -8866,7 +8873,7 @@
         <v>925</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>364</v>
@@ -8901,7 +8908,7 @@
         <v>926</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>365</v>
@@ -8936,7 +8943,7 @@
         <v>927</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>374</v>
@@ -8971,7 +8978,7 @@
         <v>928</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>372</v>
@@ -9006,7 +9013,7 @@
         <v>929</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>373</v>
@@ -9041,7 +9048,7 @@
         <v>930</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>382</v>
@@ -9076,7 +9083,7 @@
         <v>931</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>383</v>
@@ -9249,7 +9256,7 @@
         <v>936</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>399</v>
@@ -9284,7 +9291,7 @@
         <v>937</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>400</v>
@@ -11181,7 +11188,7 @@
         <v>996</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>526</v>
@@ -11216,7 +11223,7 @@
         <v>997</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>527</v>
@@ -11251,7 +11258,7 @@
         <v>998</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>528</v>
@@ -11286,7 +11293,7 @@
         <v>999</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>529</v>
@@ -11321,7 +11328,7 @@
         <v>1000</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>555</v>
@@ -11353,7 +11360,7 @@
         <v>1001</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>568</v>
@@ -11385,7 +11392,7 @@
         <v>1002</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>569</v>
@@ -11417,7 +11424,7 @@
         <v>1003</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>558</v>
@@ -11452,7 +11459,7 @@
         <v>1004</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>559</v>
@@ -11487,7 +11494,7 @@
         <v>1005</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>570</v>
@@ -11519,7 +11526,7 @@
         <v>1006</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>571</v>
@@ -11551,7 +11558,7 @@
         <v>1007</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>572</v>
@@ -11583,7 +11590,7 @@
         <v>1008</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>573</v>
@@ -11615,7 +11622,7 @@
         <v>1009</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>585</v>
@@ -11650,7 +11657,7 @@
         <v>1010</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>586</v>
@@ -11685,7 +11692,7 @@
         <v>1011</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>587</v>
@@ -11720,7 +11727,7 @@
         <v>1012</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>588</v>
@@ -11755,7 +11762,7 @@
         <v>1013</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>589</v>
@@ -11790,7 +11797,7 @@
         <v>1014</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>590</v>
@@ -11825,7 +11832,7 @@
         <v>1015</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>591</v>
@@ -11860,7 +11867,7 @@
         <v>1016</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>592</v>
@@ -11895,7 +11902,7 @@
         <v>1017</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>593</v>
@@ -11930,7 +11937,7 @@
         <v>1018</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>594</v>
@@ -11965,7 +11972,7 @@
         <v>1019</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>595</v>
@@ -12035,7 +12042,7 @@
         <v>1021</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>597</v>
@@ -12070,7 +12077,7 @@
         <v>1022</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>598</v>
@@ -12105,7 +12112,7 @@
         <v>1023</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>599</v>
@@ -12140,7 +12147,7 @@
         <v>1024</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>600</v>
@@ -12175,7 +12182,7 @@
         <v>1025</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>601</v>
@@ -12210,7 +12217,7 @@
         <v>1026</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>602</v>
@@ -12245,7 +12252,7 @@
         <v>1027</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>603</v>
@@ -12280,7 +12287,7 @@
         <v>1028</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>604</v>
@@ -12350,7 +12357,7 @@
         <v>1030</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>606</v>
@@ -12420,7 +12427,7 @@
         <v>1032</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>608</v>
@@ -12455,7 +12462,7 @@
         <v>1033</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>609</v>
@@ -12630,7 +12637,7 @@
         <v>1038</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>703</v>
@@ -12665,7 +12672,7 @@
         <v>1039</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>704</v>
@@ -12767,7 +12774,7 @@
         <v>1042</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>684</v>
@@ -12799,7 +12806,7 @@
         <v>1043</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>685</v>
@@ -12831,7 +12838,7 @@
         <v>1044</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>686</v>
@@ -12859,7 +12866,7 @@
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -12968,7 +12975,7 @@
         <v>1048</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>716</v>
@@ -13003,7 +13010,7 @@
         <v>1049</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>717</v>
@@ -13038,7 +13045,7 @@
         <v>1050</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>718</v>
@@ -13073,7 +13080,7 @@
         <v>1051</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>719</v>
@@ -13108,7 +13115,7 @@
         <v>1052</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>720</v>
@@ -13143,7 +13150,7 @@
         <v>1053</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>721</v>
@@ -13178,7 +13185,7 @@
         <v>1054</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>722</v>
@@ -13213,7 +13220,7 @@
         <v>1055</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>723</v>
@@ -13248,7 +13255,7 @@
         <v>1056</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>742</v>
@@ -13283,7 +13290,7 @@
         <v>1057</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>746</v>
@@ -13318,7 +13325,7 @@
         <v>1058</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>757</v>
@@ -13353,7 +13360,7 @@
         <v>1059</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>758</v>
@@ -13388,7 +13395,7 @@
         <v>1060</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>763</v>
@@ -13423,7 +13430,7 @@
         <v>1061</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>765</v>
@@ -13458,7 +13465,7 @@
         <v>1062</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>766</v>
@@ -13493,7 +13500,7 @@
         <v>1063</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>767</v>
@@ -13528,7 +13535,7 @@
         <v>1064</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>785</v>
@@ -13563,7 +13570,7 @@
         <v>1065</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>786</v>
@@ -13598,7 +13605,7 @@
         <v>1066</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>788</v>
@@ -13633,7 +13640,7 @@
         <v>1067</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>791</v>
@@ -13668,7 +13675,7 @@
         <v>1068</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>793</v>
@@ -13703,7 +13710,7 @@
         <v>1069</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>794</v>
@@ -13738,7 +13745,7 @@
         <v>1070</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>795</v>
@@ -13773,7 +13780,7 @@
         <v>1071</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>796</v>
@@ -13808,7 +13815,7 @@
         <v>1072</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>806</v>
@@ -13909,7 +13916,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2"/>
+  <autoFilter ref="A1:L257"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
